--- a/Base/Teams/Dolphins/Distributions.xlsx
+++ b/Base/Teams/Dolphins/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(3.25169930938121, 1.3591214884488685, -0.6011149975615149, 2.297191956654516)</t>
-  </si>
-  <si>
-    <t>NIG(1.0709415192182443, 0.8204359029601936, 3.7950919085273314, 4.835404968933833)</t>
-  </si>
-  <si>
-    <t>NCT(2.1499697446327177, 1.3983552911427095, -0.4130680418356855, 2.177283365419297)</t>
-  </si>
-  <si>
-    <t>NIG(2.0628829297499935, 1.7735635824930296, 2.8002562246256693, 5.230646811394111)</t>
+    <t>NCT(3.108436580699082, 1.2902709029944714, -0.3342445738815883, 2.1952681219794457)</t>
+  </si>
+  <si>
+    <t>NIG(1.1375390676077846, 0.8673294009355148, 3.6796744990945363, 4.878560135865573)</t>
+  </si>
+  <si>
+    <t>NCT(2.158436442253288, 1.4962217573916945, -0.6980033242432776, 2.192834432140004)</t>
+  </si>
+  <si>
+    <t>NIG(1.5718075567915843, 1.2653873044936532, 3.7033568041349727, 5.630939170309886)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Dolphins/Distributions.xlsx
+++ b/Base/Teams/Dolphins/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(3.108436580699082, 1.2902709029944714, -0.3342445738815883, 2.1952681219794457)</t>
-  </si>
-  <si>
-    <t>NIG(1.1375390676077846, 0.8673294009355148, 3.6796744990945363, 4.878560135865573)</t>
-  </si>
-  <si>
-    <t>NCT(2.158436442253288, 1.4962217573916945, -0.6980033242432776, 2.192834432140004)</t>
-  </si>
-  <si>
-    <t>NIG(1.5718075567915843, 1.2653873044936532, 3.7033568041349727, 5.630939170309886)</t>
+    <t>NIG(0.8571612750185557, 0.5412043507944918, 1.4583574401596122, 2.6997192601375595)</t>
+  </si>
+  <si>
+    <t>NIG(1.281384389105698, 0.9927300236049552, 3.38832357365171, 5.073188678935194)</t>
+  </si>
+  <si>
+    <t>NCT(2.1580483291731913, 1.4355159246686284, -0.5372498754761921, 2.1814039953655016)</t>
+  </si>
+  <si>
+    <t>JSU(-1.3209888415451365, 1.21751637320558, 2.5746443171940823, 4.80394103860375)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Dolphins/Distributions.xlsx
+++ b/Base/Teams/Dolphins/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.8571612750185557, 0.5412043507944918, 1.4583574401596122, 2.6997192601375595)</t>
-  </si>
-  <si>
-    <t>NIG(1.281384389105698, 0.9927300236049552, 3.38832357365171, 5.073188678935194)</t>
-  </si>
-  <si>
-    <t>NCT(2.1580483291731913, 1.4355159246686284, -0.5372498754761921, 2.1814039953655016)</t>
-  </si>
-  <si>
-    <t>JSU(-1.3209888415451365, 1.21751637320558, 2.5746443171940823, 4.80394103860375)</t>
+    <t>NIG(0.9607400631401491, 0.6363141226038453, 1.2599803579699587, 2.757477484039489)</t>
+  </si>
+  <si>
+    <t>NIG(1.3893131935033092, 1.0811932543645453, 3.171941863539942, 5.247304399970877)</t>
+  </si>
+  <si>
+    <t>NCT(2.146763212066107, 1.4392517279164858, -0.6671619270341693, 2.229515124041949)</t>
+  </si>
+  <si>
+    <t>JSU(-1.3597500685442423, 1.1992472612259442, 2.3616481091997383, 4.5831262051533965)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Dolphins/Distributions.xlsx
+++ b/Base/Teams/Dolphins/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.9607400631401491, 0.6363141226038453, 1.2599803579699587, 2.757477484039489)</t>
-  </si>
-  <si>
-    <t>NIG(1.3893131935033092, 1.0811932543645453, 3.171941863539942, 5.247304399970877)</t>
-  </si>
-  <si>
-    <t>NCT(2.146763212066107, 1.4392517279164858, -0.6671619270341693, 2.229515124041949)</t>
-  </si>
-  <si>
-    <t>JSU(-1.3597500685442423, 1.1992472612259442, 2.3616481091997383, 4.5831262051533965)</t>
+    <t>NIG(0.8871922249200372, 0.5969110571806628, 1.3619404499586376, 2.669885617651782)</t>
+  </si>
+  <si>
+    <t>NIG(1.407552908362087, 1.0940782112350167, 3.140343901205358, 5.214953775489716)</t>
+  </si>
+  <si>
+    <t>NCT(2.2708972336861946, 1.5065209268749937, -0.8301230842375278, 2.2836820928583794)</t>
+  </si>
+  <si>
+    <t>JSU(-1.4099427221920178, 1.19363204025625, 2.161080550921044, 4.480679254835424)</t>
   </si>
 </sst>
 </file>
